--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1976814.024965588</v>
+        <v>1990677.055674146</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.27610318459493</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>71.63299843696588</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.76498065559674</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.65964236359872</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>330.0010370174832</v>
+        <v>372.0396308464231</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464231</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385214</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>107.6070630189507</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>75.05145273159052</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281875</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129669</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>30.44838804308539</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.87637597787597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>318.054388951937</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>312.628191535418</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>128.6684380861148</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>165.9317770010848</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>139.7937753284328</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.964516789691</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452558</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.0403931697961</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>176.840706242952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.8127711940834</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.827716759979</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>191.2952892163689</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>191.6534898356759</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.97175332133616</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>27.77669965280659</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14.73664328357187</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7418731970298</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>69.78584166482513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>67.08991894886655</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696339</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.1794940099207</v>
+        <v>222.40666688016</v>
       </c>
       <c r="C3" t="n">
-        <v>103.1794940099207</v>
+        <v>222.40666688016</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
         <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M3" t="n">
-        <v>301.7940899785173</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N3" t="n">
-        <v>575.1890385438492</v>
+        <v>712.5889002841118</v>
       </c>
       <c r="O3" t="n">
-        <v>841.685852127133</v>
+        <v>979.0857138673956</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1032.269490731678</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>860.265477982857</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>658.3855780109662</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>430.1669656451139</v>
       </c>
       <c r="V3" t="n">
-        <v>773.028649708609</v>
+        <v>430.1669656451139</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7912929804074</v>
+        <v>430.1669656451139</v>
       </c>
       <c r="X3" t="n">
-        <v>310.9397927748746</v>
+        <v>430.1669656451139</v>
       </c>
       <c r="Y3" t="n">
-        <v>103.1794940099207</v>
+        <v>222.40666688016</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>51.07962342074273</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.8951582090332</v>
+        <v>1313.571089545167</v>
       </c>
       <c r="C5" t="n">
-        <v>738.8951582090332</v>
+        <v>1313.571089545167</v>
       </c>
       <c r="D5" t="n">
-        <v>738.8951582090332</v>
+        <v>1313.571089545167</v>
       </c>
       <c r="E5" t="n">
-        <v>738.8951582090332</v>
+        <v>1313.571089545167</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832926</v>
+        <v>937.7734826295882</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771383</v>
+        <v>561.9758757140094</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771383</v>
+        <v>223.9609786779066</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380451</v>
+        <v>57.64391735380445</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456887</v>
+        <v>220.1747338456888</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039988</v>
+        <v>474.0852112039991</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494178</v>
+        <v>773.216086049418</v>
       </c>
       <c r="N5" t="n">
         <v>1062.555213635724</v>
@@ -4583,34 +4583,34 @@
         <v>1290.582309293131</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.523776935884</v>
       </c>
       <c r="Q5" t="n">
         <v>1488.158523385692</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124612</v>
+        <v>1366.762647488196</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.8951582090332</v>
+        <v>1366.762647488196</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.9504451088252</v>
+        <v>477.3996311957023</v>
       </c>
       <c r="C6" t="n">
-        <v>354.9504451088252</v>
+        <v>477.3996311957023</v>
       </c>
       <c r="D6" t="n">
-        <v>354.9504451088252</v>
+        <v>368.7056281462571</v>
       </c>
       <c r="E6" t="n">
-        <v>354.9504451088252</v>
+        <v>368.7056281462571</v>
       </c>
       <c r="F6" t="n">
-        <v>279.1408968950975</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187797</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771383</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6753726278287</v>
+        <v>52.67537262782876</v>
       </c>
       <c r="K6" t="n">
-        <v>52.6753726278287</v>
+        <v>52.67537262782876</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739653</v>
+        <v>336.9933817739654</v>
       </c>
       <c r="M6" t="n">
-        <v>705.312616311924</v>
+        <v>581.0776013314437</v>
       </c>
       <c r="N6" t="n">
-        <v>1073.631850849883</v>
+        <v>949.3968358694026</v>
       </c>
       <c r="O6" t="n">
-        <v>1381.946732222202</v>
+        <v>1257.711717241722</v>
       </c>
       <c r="P6" t="n">
         <v>1488.158523385692</v>
@@ -4668,28 +4668,28 @@
         <v>1488.158523385692</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385692</v>
+        <v>1402.847410707615</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385692</v>
+        <v>1402.847410707615</v>
       </c>
       <c r="T6" t="n">
-        <v>1488.158523385692</v>
+        <v>1402.847410707615</v>
       </c>
       <c r="U6" t="n">
-        <v>1259.951709039256</v>
+        <v>1174.640596361179</v>
       </c>
       <c r="V6" t="n">
-        <v>1024.799600807514</v>
+        <v>939.4884881294367</v>
       </c>
       <c r="W6" t="n">
-        <v>770.562244079312</v>
+        <v>685.2511314012352</v>
       </c>
       <c r="X6" t="n">
-        <v>562.7107438737792</v>
+        <v>477.3996311957023</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.9504451088252</v>
+        <v>477.3996311957023</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888177</v>
+        <v>32.09990175888183</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611306</v>
+        <v>90.61654790611317</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236693</v>
+        <v>162.7032697236695</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400028</v>
+        <v>238.510546840003</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057955</v>
+        <v>292.5145415057957</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918685</v>
+        <v>315.2036061918688</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918685</v>
+        <v>60.51911798598192</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918685</v>
+        <v>60.51911798598192</v>
       </c>
       <c r="X7" t="n">
-        <v>87.21405529385117</v>
+        <v>29.76317046771385</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1899.21241430279</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1530.249897362378</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1171.984198755627</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>786.1959461573831</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>375.2100413677755</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.59438369213</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>398.5674257938016</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>398.5674257938016</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>229.567625532134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5239,10 +5239,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365139</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>1025.842754311114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,16 +5826,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.135741824786</v>
+        <v>3686.322319899658</v>
       </c>
       <c r="C22" t="n">
-        <v>795.1995588968791</v>
+        <v>3517.386136971751</v>
       </c>
       <c r="D22" t="n">
-        <v>645.0829194845434</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>497.1698259021503</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>497.1698259021503</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>328.9945042219708</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>964.135741824786</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W22" t="n">
-        <v>964.135741824786</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X22" t="n">
-        <v>964.135741824786</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.135741824786</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,19 +6066,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>3774.981524342492</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F25" t="n">
         <v>3459.155393916675</v>
@@ -6172,25 +6172,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>4258.522171716369</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>4258.522171716369</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W25" t="n">
-        <v>4258.522171716369</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="X25" t="n">
-        <v>4030.532620818351</v>
+        <v>4177.422568316262</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.740041674821</v>
+        <v>3956.629989172732</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6224,25 +6224,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6306,13 +6306,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4093.25603081147</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>3803.838860774509</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.849309876492</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="29">
@@ -6455,31 +6455,31 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6543,13 +6543,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
         <v>2051.878056918008</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>1194.613602254709</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X31" t="n">
-        <v>966.6240513566914</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.8314722131613</v>
+        <v>3606.045341414587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6677,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6780,13 +6780,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282.5355983135321</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C34" t="n">
-        <v>282.5355983135321</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>282.5355983135321</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>282.5355983135321</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>114.3602766333527</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028587</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>503.3281774570622</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>282.5355983135321</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2577.031280742779</v>
       </c>
       <c r="L36" t="n">
-        <v>624.8682044203583</v>
+        <v>3190.928350499667</v>
       </c>
       <c r="M36" t="n">
-        <v>932.1883377003199</v>
+        <v>3959.296496892129</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>760.7169704793943</v>
+        <v>3926.12130983931</v>
       </c>
       <c r="C37" t="n">
-        <v>591.7807875514874</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D37" t="n">
-        <v>591.7807875514874</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E37" t="n">
-        <v>443.8676939690943</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4845.969074748058</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>4556.551904711097</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>4328.56235381308</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>4107.76977466955</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4300.997339534571</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C40" t="n">
-        <v>4300.997339534571</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507268</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576118</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576118</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>4749.779469576118</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>4749.779469576118</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
-        <v>4521.789918678101</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y40" t="n">
-        <v>4300.997339534571</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,13 +7488,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
         <v>1247.466478653857</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1228.505511317066</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1228.505511317066</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>973.8210231111786</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W43" t="n">
-        <v>973.8210231111786</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X43" t="n">
-        <v>745.8314722131613</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>136.7278130442839</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>305.4749220413802</v>
+        <v>166.6871829098015</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.0092309435755</v>
+        <v>97.00923094357543</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835739</v>
+        <v>324.6134391618764</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470464</v>
+        <v>437.6152809470465</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>192.9728545182394</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.703734524734</v>
+        <v>107.7037345247339</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>38.86002301949873</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9954,16 +9954,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10428,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>52.49733361305132</v>
       </c>
       <c r="L36" t="n">
-        <v>91.23759968302113</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>283.6093329825495</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>59.77787838795237</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>58.12703465517043</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>90.96703739368678</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>29.87343519774001</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>109.3966461556254</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>56.89688419495374</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>10.00426342195829</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24892,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>95.22770912022213</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>26.93116351641891</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>131.9420750462</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,7 +25126,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.6443483701247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25369,7 +25369,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>237.4010000402561</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>32.87359982118259</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.0677756624132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>140.7163658137792</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>151.7617193935641</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.34404369770262</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417787</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417784</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863934.6532417787</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417784</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
         <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327923</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327921</v>
@@ -26353,7 +26353,7 @@
         <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703846</v>
+        <v>106137.1517703849</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252102</v>
+        <v>316711.9424252099</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313436</v>
+        <v>24677.24609313441</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817118</v>
+        <v>76496.15793817115</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312273</v>
+        <v>286886.6599484429</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316555</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485721</v>
+        <v>58810.42201485722</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78497.86505138554</v>
+        <v>80327.54950449296</v>
       </c>
       <c r="C6" t="n">
-        <v>121040.8929885295</v>
+        <v>122895.0051713139</v>
       </c>
       <c r="D6" t="n">
-        <v>-18979.49249159088</v>
+        <v>-17048.37797605011</v>
       </c>
       <c r="E6" t="n">
-        <v>-114822.2813760038</v>
+        <v>-113268.1002759862</v>
       </c>
       <c r="F6" t="n">
-        <v>410337.7551008924</v>
+        <v>411891.9362009099</v>
       </c>
       <c r="G6" t="n">
-        <v>410337.755100892</v>
+        <v>411891.93620091</v>
       </c>
       <c r="H6" t="n">
-        <v>410337.7551008922</v>
+        <v>411891.93620091</v>
       </c>
       <c r="I6" t="n">
-        <v>410337.7551008923</v>
+        <v>411891.9362009099</v>
       </c>
       <c r="J6" t="n">
-        <v>338083.0602297529</v>
+        <v>339637.2413297708</v>
       </c>
       <c r="K6" t="n">
-        <v>385660.5090077582</v>
+        <v>387214.6901077756</v>
       </c>
       <c r="L6" t="n">
-        <v>333841.5971627212</v>
+        <v>335395.7782627388</v>
       </c>
       <c r="M6" t="n">
-        <v>275536.7398670551</v>
+        <v>277090.9209670731</v>
       </c>
       <c r="N6" t="n">
-        <v>410337.7551008922</v>
+        <v>411891.9362009099</v>
       </c>
       <c r="O6" t="n">
-        <v>410337.7551008923</v>
+        <v>411891.93620091</v>
       </c>
       <c r="P6" t="n">
-        <v>410337.7551008922</v>
+        <v>411891.93620091</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593897</v>
+        <v>117.5602045593899</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464231</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026435</v>
+        <v>82.53894384026455</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657697</v>
+        <v>260.1834596576968</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406748</v>
+        <v>95.88311714406767</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.2476419081325</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406748</v>
+        <v>95.88311714406767</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081326</v>
+        <v>302.2476419081324</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406748</v>
+        <v>95.88311714406767</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.2476419081325</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>138.6917128032271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>193.350625201271</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>67.16896238004382</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.84784546341369</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059422</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6560673673345</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.0741992998819</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>76.87500872422828</v>
+        <v>34.83641489528833</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128743</v>
+        <v>42.79050283128726</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409304</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963065</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>39.83800254568801</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>70.01775966179336</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512967</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141301</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358469</v>
+        <v>78.37121764358466</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322654</v>
+        <v>68.41045236322651</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27831,16 +27831,16 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>195.2612673459518</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.7082773742188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>95.72978106885802</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>57.10290914305108</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>27.50245075568031</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31221,10 +31221,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246818</v>
+        <v>0.4726038374246825</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025524</v>
+        <v>4.840054050025532</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231506</v>
+        <v>18.22005944231509</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662312</v>
+        <v>40.11165994662318</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480991</v>
+        <v>60.11698038481001</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439552</v>
+        <v>74.58043007439565</v>
       </c>
       <c r="M5" t="n">
-        <v>82.9850985681967</v>
+        <v>82.98509856819685</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127959</v>
+        <v>84.32788422127973</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288792</v>
+        <v>79.62842981288804</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646606</v>
+        <v>67.96102257646618</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869464</v>
+        <v>51.03589764869472</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262819</v>
+        <v>29.68720080262824</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531495</v>
+        <v>10.76945994531497</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326545</v>
+        <v>2.068823298326549</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397453</v>
+        <v>0.0378083069939746</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560457</v>
+        <v>0.2528653456560461</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941284</v>
+        <v>2.442146890941288</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596312</v>
+        <v>8.706109488596327</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182843</v>
+        <v>23.89022987182847</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078349</v>
+        <v>40.83220803078356</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483572</v>
+        <v>54.90394270483581</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486736</v>
+        <v>64.07031148486747</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827099</v>
+        <v>65.76606198271</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106804</v>
+        <v>60.16309827106814</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496894</v>
+        <v>48.28619043496903</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128752</v>
+        <v>32.27803956128758</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134642</v>
+        <v>15.69983260134645</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707688</v>
+        <v>4.696862889707696</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359237</v>
+        <v>1.019224792359238</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368722</v>
+        <v>0.01663587800368726</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005387</v>
+        <v>0.2119938115005391</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886609</v>
+        <v>1.884817705886613</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761658</v>
+        <v>6.375232076761669</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308809</v>
+        <v>14.98796247308811</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342622</v>
+        <v>24.62982646342626</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072556</v>
+        <v>31.51769812072561</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094354</v>
+        <v>33.2309935609436</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898701</v>
+        <v>32.44083480898706</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736707</v>
+        <v>29.96436164736712</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275606</v>
+        <v>25.6396878927561</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846784</v>
+        <v>17.75159088846787</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651494</v>
+        <v>9.53201265165151</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513933</v>
+        <v>3.694473969513939</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477562</v>
+        <v>0.9057917400477578</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912031</v>
+        <v>0.01156329880912033</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>185.8850018835525</v>
+        <v>47.0972627519739</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920106</v>
+        <v>28.16237059201067</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109942</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548587</v>
+        <v>256.4752296548588</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337565</v>
+        <v>302.1523988337566</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366728</v>
+        <v>292.261745036673</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539465</v>
+        <v>230.3303996539467</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926793</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414983</v>
+        <v>41.04519843414992</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557057</v>
+        <v>23.14363854557061</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284208</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464229</v>
+        <v>246.5497167247256</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464231</v>
       </c>
       <c r="O6" t="n">
         <v>311.4291731033532</v>
       </c>
       <c r="P6" t="n">
-        <v>107.2846375388781</v>
+        <v>232.774551660576</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543371</v>
+        <v>2.36033463754341</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104169</v>
+        <v>59.10772338104175</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278413</v>
+        <v>72.81487052278419</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882156</v>
+        <v>76.57300718821566</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140674</v>
+        <v>54.54948956140679</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764955</v>
+        <v>22.91824715764959</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>189.435461607438</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,13 +36443,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>579.6103458172109</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36674,16 +36674,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>189.4354616074379</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
@@ -36911,16 +36911,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -37148,16 +37148,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37385,22 +37385,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009906</v>
       </c>
       <c r="L36" t="n">
-        <v>340.4953046390455</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>565.9730352236576</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990677.055674146</v>
+        <v>2072361.098212442</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>197.3801726732572</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>155.8903435161421</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>71.63299843696588</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>8.921597737097731</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.65964236359872</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>22.02149865832941</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464231</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464231</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>107.6070630189507</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281875</v>
+        <v>80.69052336281884</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129669</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>222.1715668759176</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>62.26390729945315</v>
       </c>
       <c r="X7" t="n">
-        <v>30.44838804308539</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>204.2352739248687</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>318.054388951937</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.35153719005411</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>36.88234405457748</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>165.9317770010848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.7937753284328</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>135.0256963802047</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>172.7067178467373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.8127711940834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.827716759979</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.7660731567848</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>285.7815541126268</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.6534898356759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>122.3137095599312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>105.076822166376</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>14.73664328357187</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>7.959851652140697</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>20.50993243674175</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>67.08991894886655</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>152.3458132526256</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4337,13 +4339,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>737.4494614202823</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>737.4494614202823</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="V2" t="n">
-        <v>737.4494614202823</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="W2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="X2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.9844679696338</v>
+        <v>500.4124063240801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.40666688016</v>
+        <v>335.2002861487693</v>
       </c>
       <c r="C3" t="n">
-        <v>222.40666688016</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="D3" t="n">
-        <v>222.40666688016</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="E3" t="n">
-        <v>222.40666688016</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
         <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>439.1939517187799</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>712.5889002841118</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O3" t="n">
-        <v>979.0857138673956</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1032.269490731678</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>860.265477982857</v>
+        <v>999.1690430543944</v>
       </c>
       <c r="T3" t="n">
-        <v>658.3855780109662</v>
+        <v>797.2891430825036</v>
       </c>
       <c r="U3" t="n">
-        <v>430.1669656451139</v>
+        <v>797.2891430825036</v>
       </c>
       <c r="V3" t="n">
-        <v>430.1669656451139</v>
+        <v>797.2891430825036</v>
       </c>
       <c r="W3" t="n">
-        <v>430.1669656451139</v>
+        <v>543.0517863543021</v>
       </c>
       <c r="X3" t="n">
-        <v>430.1669656451139</v>
+        <v>335.2002861487693</v>
       </c>
       <c r="Y3" t="n">
-        <v>222.40666688016</v>
+        <v>335.2002861487693</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.571089545167</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="C5" t="n">
-        <v>1313.571089545167</v>
+        <v>997.8001305477783</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.571089545167</v>
+        <v>997.8001305477783</v>
       </c>
       <c r="E5" t="n">
-        <v>1313.571089545167</v>
+        <v>975.5561925090617</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7734826295882</v>
+        <v>599.7585855934842</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140094</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380445</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456888</v>
+        <v>220.1747338456876</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039991</v>
+        <v>474.0852112039971</v>
       </c>
       <c r="M5" t="n">
-        <v>773.216086049418</v>
+        <v>773.2160860494153</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635724</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293131</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935884</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488196</v>
+        <v>1366.76264748819</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.3996311957023</v>
+        <v>593.89364356991</v>
       </c>
       <c r="C6" t="n">
-        <v>477.3996311957023</v>
+        <v>419.440614288783</v>
       </c>
       <c r="D6" t="n">
-        <v>368.7056281462571</v>
+        <v>270.5062046275317</v>
       </c>
       <c r="E6" t="n">
-        <v>368.7056281462571</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782876</v>
+        <v>52.67537262782839</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782876</v>
+        <v>218.4568186361411</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739654</v>
+        <v>419.7234304867982</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314437</v>
+        <v>788.0426650247557</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358694026</v>
+        <v>1156.361899562713</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241722</v>
+        <v>1156.361899562713</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385692</v>
+        <v>1386.808705706683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707615</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707615</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T6" t="n">
-        <v>1402.847410707615</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="U6" t="n">
-        <v>1174.640596361179</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="V6" t="n">
-        <v>939.4884881294367</v>
+        <v>1263.742799268598</v>
       </c>
       <c r="W6" t="n">
-        <v>685.2511314012352</v>
+        <v>1009.505442540397</v>
       </c>
       <c r="X6" t="n">
-        <v>477.3996311957023</v>
+        <v>801.6539423348638</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.3996311957023</v>
+        <v>593.89364356991</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888183</v>
+        <v>32.09990175888146</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611317</v>
+        <v>90.61654790611246</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236695</v>
+        <v>162.7032697236685</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840003</v>
+        <v>238.5105468400016</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057957</v>
+        <v>292.514541505794</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918688</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918688</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918688</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918688</v>
+        <v>92.65600612372702</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918688</v>
+        <v>92.65600612372702</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918688</v>
+        <v>92.65600612372702</v>
       </c>
       <c r="V7" t="n">
-        <v>60.51911798598192</v>
+        <v>92.65600612372702</v>
       </c>
       <c r="W7" t="n">
-        <v>60.51911798598192</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771385</v>
+        <v>29.76317046771373</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.21241430279</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.249897362378</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.984198755627</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1959461573831</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>375.2100413677755</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4820,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4963,46 +4965,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406178</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587805</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5124,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.689320534781</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>931.1046727766346</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1942894808744</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1246.635333454644</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.635333454644</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.635333454644</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1246.635333454644</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W19" t="n">
-        <v>1246.635333454644</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X19" t="n">
-        <v>1246.635333454644</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.842754311114</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3686.322319899658</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C22" t="n">
-        <v>3517.386136971751</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.752914771445</v>
+        <v>4082.388754106443</v>
       </c>
       <c r="X22" t="n">
-        <v>4088.763363873428</v>
+        <v>3854.399203208426</v>
       </c>
       <c r="Y22" t="n">
-        <v>3867.970784729898</v>
+        <v>3633.606624064896</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5977,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3774.981524342492</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>3606.045341414585</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D25" t="n">
-        <v>3606.045341414585</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414585</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.940519017357</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>4177.422568316262</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>3956.629989172732</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6239,7 +6241,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6305,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1247.466478653857</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>4230.423978142507</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>4061.4877952146</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3911.371155802264</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3763.458062219871</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3763.458062219871</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3595.282740539692</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>4632.865022116276</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305959</v>
+        <v>4412.072442972746</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>339.7502131046251</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615138</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3606.045341414587</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C31" t="n">
-        <v>3606.045341414587</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227851</v>
+        <v>1210.248034080502</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>955.5635458746146</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985004</v>
+        <v>955.5635458746146</v>
       </c>
       <c r="X31" t="n">
-        <v>3799.634725086987</v>
+        <v>727.5739949765973</v>
       </c>
       <c r="Y31" t="n">
-        <v>3606.045341414587</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="32">
@@ -6695,34 +6697,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7502131046251</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.6859735286132</v>
+        <v>4094.598000559212</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>4276.246465389451</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>4276.246465389451</v>
       </c>
       <c r="Y34" t="n">
-        <v>665.6859735286132</v>
+        <v>4276.246465389451</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2577.031280742779</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3190.928350499667</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>3959.296496892129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.12130983931</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499068</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4845.969074748058</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4556.551904711097</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>4328.56235381308</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>4107.76977466955</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365139</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954967</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954967</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954967</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954967</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7360,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954967</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954967</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,61 +7399,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>585.5099430858313</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>357.520392187814</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7278130442839</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7646,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977054</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>484.0375086983735</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C46" t="n">
-        <v>315.1013257704666</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D46" t="n">
-        <v>164.9846863581309</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>331.1054357131094</v>
       </c>
       <c r="P3" t="n">
-        <v>166.6871829098015</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357543</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>286.9500450049956</v>
       </c>
       <c r="M6" t="n">
-        <v>324.6134391618764</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470465</v>
+        <v>437.6152809470457</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>82.43314617337693</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247339</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783531</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.83804904622873</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>38.86002301949873</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>38.8600230194987</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>19.14409596997064</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>52.49733361305232</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>52.49733361305232</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>52.49733361305132</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.49733361305249</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.9496361273598</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>59.77787838795237</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>58.12703465517043</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.125262335199949</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>88.03227438679487</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>56.89688419495374</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.00426342195829</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>14.14775521075128</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.4557982859505501</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.93116351641891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44.93311153869659</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.446176170215</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4010000402561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>140.6556213660717</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.0677756624132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.7163658137792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>146.7368886618861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.34404369770262</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>913122.0843417305</v>
+        <v>913122.0843417303</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>915241.3155693085</v>
+        <v>915241.3155693086</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417784</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863934.6532417787</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863934.6532417784</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417784</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863934.6532417785</v>
+        <v>863934.6532417786</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863934.6532417784</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327926</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703849</v>
+        <v>106137.1517703833</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252099</v>
+        <v>316711.9424252111</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313441</v>
+        <v>24677.24609313406</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817115</v>
+        <v>76496.15793817147</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484429</v>
+        <v>286886.6599484433</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26433,13 +26435,13 @@
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="K4" t="n">
         <v>43561.42148316556</v>
@@ -26448,16 +26450,16 @@
         <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="P4" t="n">
         <v>43561.42148316556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43561.42148316555</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43561.42148316555</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485722</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26494,13 +26496,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80327.54950449296</v>
+        <v>80327.54950449284</v>
       </c>
       <c r="C6" t="n">
-        <v>122895.0051713139</v>
+        <v>122895.0051713148</v>
       </c>
       <c r="D6" t="n">
-        <v>-17048.37797605011</v>
+        <v>-17048.37797605144</v>
       </c>
       <c r="E6" t="n">
-        <v>-113268.1002759862</v>
+        <v>-113268.1002759867</v>
       </c>
       <c r="F6" t="n">
         <v>411891.9362009099</v>
       </c>
       <c r="G6" t="n">
-        <v>411891.93620091</v>
+        <v>411891.9362009102</v>
       </c>
       <c r="H6" t="n">
         <v>411891.93620091</v>
       </c>
       <c r="I6" t="n">
-        <v>411891.9362009099</v>
+        <v>411891.9362009098</v>
       </c>
       <c r="J6" t="n">
         <v>339637.2413297708</v>
       </c>
       <c r="K6" t="n">
-        <v>387214.6901077756</v>
+        <v>387214.6901077762</v>
       </c>
       <c r="L6" t="n">
-        <v>335395.7782627388</v>
+        <v>335395.7782627386</v>
       </c>
       <c r="M6" t="n">
-        <v>277090.9209670731</v>
+        <v>277090.9209670727</v>
       </c>
       <c r="N6" t="n">
-        <v>411891.9362009099</v>
+        <v>411891.93620091</v>
       </c>
       <c r="O6" t="n">
-        <v>411891.93620091</v>
+        <v>411891.9362009098</v>
       </c>
       <c r="P6" t="n">
-        <v>411891.93620091</v>
+        <v>411891.9362009104</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593899</v>
+        <v>117.5602045593887</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464231</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26960,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026455</v>
+        <v>82.53894384026333</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576968</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406767</v>
+        <v>95.88311714406622</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081325</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406767</v>
+        <v>95.88311714406633</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406767</v>
+        <v>95.88311714406622</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081325</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>209.4958730684542</v>
       </c>
       <c r="G2" t="n">
         <v>139.005434824964</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>193.350625201271</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.84784546341369</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>161.3623748842354</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.700786234059422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,10 +27584,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>222.2386165758481</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.0741992998819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>359.9088714139324</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528833</v>
+        <v>34.83641489528975</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128726</v>
+        <v>42.79050283128868</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27695,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.83800254568801</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129685</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>10.62902027350765</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358466</v>
+        <v>78.37121764358481</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322651</v>
+        <v>68.4104523632267</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27831,13 +27833,13 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>224.2590910371379</v>
       </c>
       <c r="X7" t="n">
-        <v>195.2612673459518</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>177.6950961473931</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>95.72978106885802</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680302</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31072,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31197,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31221,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246825</v>
+        <v>0.4726038374246777</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025532</v>
+        <v>4.840054050025481</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231509</v>
+        <v>18.2200594423149</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662318</v>
+        <v>40.11165994662277</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481001</v>
+        <v>60.11698038480939</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439565</v>
+        <v>74.58043007439488</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819685</v>
+        <v>82.98509856819599</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127973</v>
+        <v>84.32788422127886</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288804</v>
+        <v>79.62842981288722</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646618</v>
+        <v>67.96102257646548</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869472</v>
+        <v>51.0358976486942</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262824</v>
+        <v>29.68720080262793</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531497</v>
+        <v>10.76945994531485</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326549</v>
+        <v>2.068823298326528</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939746</v>
+        <v>0.0378083069939742</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560461</v>
+        <v>0.2528653456560435</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941288</v>
+        <v>2.442146890941263</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596327</v>
+        <v>8.706109488596237</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182847</v>
+        <v>23.89022987182822</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078356</v>
+        <v>40.83220803078314</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483581</v>
+        <v>54.90394270483525</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486747</v>
+        <v>64.07031148486681</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271</v>
+        <v>65.76606198270932</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106814</v>
+        <v>60.16309827106751</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496903</v>
+        <v>48.28619043496852</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128758</v>
+        <v>32.27803956128724</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134645</v>
+        <v>15.69983260134629</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707696</v>
+        <v>4.696862889707647</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359238</v>
+        <v>1.019224792359228</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368726</v>
+        <v>0.01663587800368708</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005391</v>
+        <v>0.2119938115005369</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886613</v>
+        <v>1.884817705886593</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761669</v>
+        <v>6.375232076761602</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308811</v>
+        <v>14.98796247308796</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342626</v>
+        <v>24.62982646342601</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072561</v>
+        <v>31.51769812072528</v>
       </c>
       <c r="M7" t="n">
-        <v>33.2309935609436</v>
+        <v>33.23099356094325</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898706</v>
+        <v>32.44083480898673</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736712</v>
+        <v>29.96436164736681</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927561</v>
+        <v>25.63968789275583</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846787</v>
+        <v>17.75159088846769</v>
       </c>
       <c r="R7" t="n">
-        <v>9.53201265165151</v>
+        <v>9.53201265165141</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513939</v>
+        <v>3.694473969513901</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477578</v>
+        <v>0.9057917400477483</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912033</v>
+        <v>0.01156329880912021</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>206.4318170255555</v>
       </c>
       <c r="P3" t="n">
-        <v>47.0972627519739</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34872,7 +34874,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201067</v>
+        <v>28.16237059201026</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109942</v>
+        <v>164.1725419109936</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548588</v>
+        <v>256.4752296548581</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337566</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036673</v>
+        <v>292.2617450366721</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539467</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926793</v>
+        <v>158.5267349926786</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414992</v>
+        <v>41.04519843414939</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557061</v>
+        <v>23.14363854557037</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284208</v>
+        <v>203.2996079299567</v>
       </c>
       <c r="M6" t="n">
-        <v>246.5497167247256</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464231</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033532</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>232.774551660576</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754341</v>
+        <v>2.360334637543154</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104175</v>
+        <v>59.10772338104142</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278419</v>
+        <v>72.81487052278383</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821566</v>
+        <v>76.57300718821531</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140679</v>
+        <v>54.54948956140648</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764959</v>
+        <v>22.91824715764932</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262132</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,7 +35506,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>57.74822800113539</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>189.435461607438</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>189.4354616074379</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>329.5684730204368</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>203.0727722009916</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>203.0727722009916</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0727722009906</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445772</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2072361.098212442</v>
+        <v>2065187.809502159</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>197.3801726732572</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -718,7 +718,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>111.3193379718597</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>45.75578120360313</v>
       </c>
       <c r="S3" t="n">
-        <v>8.921597737097731</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.69723130130868</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>22.02149865832941</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464217</v>
+        <v>351.8158351506791</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464217</v>
+        <v>372.039630846421</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281884</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>61.1733998948422</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>222.1715668759176</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.1649833439795</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>62.26390729945315</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>204.2352739248687</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>22.02087812852558</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.35153719005411</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.88234405457748</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>177.4671311412369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>135.0256963802047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.7067178467373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>159.8265587000964</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.7660731567848</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>285.7815541126268</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>105.076822166376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92656778835364</v>
+        <v>19.61329688853265</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>7.959851652140697</v>
+        <v>75.87801955598435</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>20.50993243674175</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>152.3458132526256</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>50.13491291997161</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="C2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="D2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="E2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>523.4729093258053</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>500.4124063240801</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="W2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="X2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="Y2" t="n">
-        <v>500.4124063240801</v>
+        <v>530.4184100750088</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.2002861487693</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676423</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676423</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676423</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>547.9495565712182</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N3" t="n">
-        <v>821.3445051365501</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1058.408093997701</v>
       </c>
       <c r="S3" t="n">
-        <v>999.1690430543944</v>
+        <v>886.4040812488799</v>
       </c>
       <c r="T3" t="n">
-        <v>797.2891430825036</v>
+        <v>886.4040812488799</v>
       </c>
       <c r="U3" t="n">
-        <v>797.2891430825036</v>
+        <v>886.4040812488799</v>
       </c>
       <c r="V3" t="n">
-        <v>797.2891430825036</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="W3" t="n">
-        <v>543.0517863543021</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="X3" t="n">
-        <v>335.2002861487693</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.2002861487693</v>
+        <v>651.2519730171373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>170.0056146785815</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="C5" t="n">
-        <v>997.8001305477783</v>
+        <v>1119.196006445272</v>
       </c>
       <c r="D5" t="n">
-        <v>997.8001305477783</v>
+        <v>760.9303078385219</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090617</v>
+        <v>760.9303078385219</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934842</v>
+        <v>405.5607773832905</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380366</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456876</v>
+        <v>220.174733845687</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039971</v>
+        <v>474.0852112039962</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494153</v>
+        <v>773.216086049414</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935876</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385684</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593.89364356991</v>
+        <v>353.150609410092</v>
       </c>
       <c r="C6" t="n">
-        <v>419.440614288783</v>
+        <v>178.6975801289649</v>
       </c>
       <c r="D6" t="n">
-        <v>270.5062046275317</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782839</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361411</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="L6" t="n">
-        <v>419.7234304867982</v>
+        <v>314.0811796138495</v>
       </c>
       <c r="M6" t="n">
-        <v>788.0426650247557</v>
+        <v>682.4004141518062</v>
       </c>
       <c r="N6" t="n">
-        <v>1156.361899562713</v>
+        <v>949.3968358693958</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562713</v>
+        <v>1257.711717241714</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706683</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T6" t="n">
-        <v>1488.158523385687</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="U6" t="n">
-        <v>1488.158523385687</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="V6" t="n">
-        <v>1263.742799268598</v>
+        <v>1191.215102128848</v>
       </c>
       <c r="W6" t="n">
-        <v>1009.505442540397</v>
+        <v>936.9777454006467</v>
       </c>
       <c r="X6" t="n">
-        <v>801.6539423348638</v>
+        <v>729.1262451951138</v>
       </c>
       <c r="Y6" t="n">
-        <v>593.89364356991</v>
+        <v>521.36594643016</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771373</v>
+        <v>176.653117965624</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888146</v>
+        <v>32.09990175888129</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611246</v>
+        <v>90.61654790611215</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236685</v>
+        <v>162.703269723668</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400016</v>
+        <v>238.510546840001</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505794</v>
+        <v>292.5145415057933</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.203606191866</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.203606191866</v>
       </c>
       <c r="S7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.203606191866</v>
       </c>
       <c r="T7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.203606191866</v>
       </c>
       <c r="U7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.203606191866</v>
       </c>
       <c r="V7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.203606191866</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.203606191866</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.619444146874</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1242.656927206462</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.656927206462</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406178</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587805</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>303.4081673726145</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>550.2226492899338</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698953</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>849.6126242577293</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>560.1954542207687</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,61 +5743,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916677</v>
+        <v>688.7859813545102</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143404</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>4371.805924143404</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>4082.388754106443</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X22" t="n">
-        <v>3854.399203208426</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y22" t="n">
-        <v>3633.606624064896</v>
+        <v>870.43444618475</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,16 +6314,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4230.423978142507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4061.4877952146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3911.371155802264</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3763.458062219871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3763.458062219871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3595.282740539692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014293</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014293</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014293</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>4632.865022116276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4412.072442972746</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.248034080502</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.5635458746146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>955.5635458746146</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>727.5739949765973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,67 +6679,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4094.598000559212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4382.384669597912</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4276.246465389451</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4276.246465389451</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4276.246465389451</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861153</v>
+        <v>583.2726413366777</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582084</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458727</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634796</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="F37" t="n">
-        <v>401.5197597634796</v>
+        <v>267.4465109108604</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7207,13 +7207,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7338,46 +7338,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799399</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471228</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119732</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035284</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.921157035284</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>898.792518248842</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324571</v>
+        <v>898.792518248842</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7405,55 +7405,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>485.4047026089419</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>732.1698305154059</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>731.0291971045608</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>731.0291971045608</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7648,19 +7648,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483981</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>263.0480264917442</v>
       </c>
       <c r="O3" t="n">
-        <v>331.1054357131094</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357606</v>
       </c>
       <c r="L6" t="n">
-        <v>286.9500450049956</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835731</v>
+        <v>450.1033532835728</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470457</v>
+        <v>335.2690053709168</v>
       </c>
       <c r="O6" t="n">
-        <v>82.43314617337693</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.83804904622873</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>182.0340742867947</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>19.14409596997064</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>87.16935584025424</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9496361273598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709125</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>108.7702212573404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.125262335199949</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>7.420262398531406</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>88.03227438679487</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14775521075128</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4557982859505501</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>181.446176170215</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>124.5670006750239</v>
+        <v>146.8802715748449</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>140.6556213660717</v>
+        <v>72.737453462228</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>146.7368886618861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.14775521075197</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26082,10 +26082,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>236.3880854166194</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>915241.3155693086</v>
+        <v>915241.3155693085</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863934.6532417784</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863934.6532417784</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417785</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863934.6532417786</v>
+        <v>863934.6532417787</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="J2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703833</v>
+        <v>106137.1517703826</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252111</v>
+        <v>316711.9424252121</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313406</v>
+        <v>24677.24609313388</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817147</v>
+        <v>76496.15793817176</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484433</v>
+        <v>286886.6599484435</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26435,13 +26435,13 @@
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
         <v>43561.42148316556</v>
@@ -26453,10 +26453,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316559</v>
       </c>
       <c r="P4" t="n">
         <v>43561.42148316556</v>
@@ -26472,19 +26472,19 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485706</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80327.54950449284</v>
+        <v>80327.54950449313</v>
       </c>
       <c r="C6" t="n">
-        <v>122895.0051713148</v>
+        <v>122895.0051713153</v>
       </c>
       <c r="D6" t="n">
-        <v>-17048.37797605144</v>
+        <v>-17048.37797605238</v>
       </c>
       <c r="E6" t="n">
-        <v>-113268.1002759867</v>
+        <v>-114242.6915357081</v>
       </c>
       <c r="F6" t="n">
-        <v>411891.9362009099</v>
+        <v>410917.3449411881</v>
       </c>
       <c r="G6" t="n">
-        <v>411891.9362009102</v>
+        <v>410917.3449411883</v>
       </c>
       <c r="H6" t="n">
-        <v>411891.93620091</v>
+        <v>410917.344941188</v>
       </c>
       <c r="I6" t="n">
-        <v>411891.9362009098</v>
+        <v>410917.3449411882</v>
       </c>
       <c r="J6" t="n">
-        <v>339637.2413297708</v>
+        <v>338662.650070049</v>
       </c>
       <c r="K6" t="n">
-        <v>387214.6901077762</v>
+        <v>386240.0988480544</v>
       </c>
       <c r="L6" t="n">
-        <v>335395.7782627386</v>
+        <v>334421.1870030165</v>
       </c>
       <c r="M6" t="n">
-        <v>277090.9209670727</v>
+        <v>276116.329707351</v>
       </c>
       <c r="N6" t="n">
-        <v>411891.93620091</v>
+        <v>410917.3449411886</v>
       </c>
       <c r="O6" t="n">
-        <v>411891.9362009098</v>
+        <v>410917.3449411881</v>
       </c>
       <c r="P6" t="n">
-        <v>411891.9362009104</v>
+        <v>410917.3449411886</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593887</v>
+        <v>117.5602045593881</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464217</v>
+        <v>372.039630846421</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026333</v>
+        <v>82.53894384026279</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576977</v>
+        <v>260.1834596576985</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406622</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406633</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081348</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406622</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>209.4958730684542</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>216.4329204982752</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>49.72506269677644</v>
       </c>
       <c r="S3" t="n">
-        <v>161.3623748842354</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>119.9182417169037</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27584,10 +27584,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.2386165758481</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>359.9088714139324</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528975</v>
+        <v>55.06021059103233</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128868</v>
+        <v>42.79050283128937</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129685</v>
+        <v>84.45800155129692</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>137.9721040076202</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>10.62902027350765</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302589685</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358481</v>
+        <v>78.37121764358488</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.4104523632267</v>
+        <v>68.41045236322678</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>224.2590910371379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>177.6950961473931</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>384.8551676131859</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>3.806844538052015</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6835682680302</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246777</v>
+        <v>0.4726038374246754</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025481</v>
+        <v>4.840054050025458</v>
       </c>
       <c r="I5" t="n">
-        <v>18.2200594423149</v>
+        <v>18.22005944231481</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662277</v>
+        <v>40.11165994662257</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480939</v>
+        <v>60.1169803848091</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439488</v>
+        <v>74.58043007439451</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819599</v>
+        <v>82.98509856819558</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127886</v>
+        <v>84.32788422127845</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288722</v>
+        <v>79.62842981288684</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646548</v>
+        <v>67.96102257646515</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486942</v>
+        <v>51.03589764869395</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262793</v>
+        <v>29.68720080262779</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531485</v>
+        <v>10.7694599453148</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326528</v>
+        <v>2.068823298326517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939742</v>
+        <v>0.03780830699397402</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560435</v>
+        <v>0.2528653456560423</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941263</v>
+        <v>2.442146890941251</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596237</v>
+        <v>8.706109488596194</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182822</v>
+        <v>23.8902298718281</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078314</v>
+        <v>40.83220803078294</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483525</v>
+        <v>54.90394270483498</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486681</v>
+        <v>64.07031148486649</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270932</v>
+        <v>65.766061982709</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106751</v>
+        <v>60.16309827106722</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496852</v>
+        <v>48.28619043496829</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128724</v>
+        <v>32.27803956128709</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134629</v>
+        <v>15.69983260134621</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707647</v>
+        <v>4.696862889707624</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359228</v>
+        <v>1.019224792359223</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368708</v>
+        <v>0.016635878003687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005369</v>
+        <v>0.2119938115005359</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886593</v>
+        <v>1.884817705886584</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761602</v>
+        <v>6.375232076761572</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308796</v>
+        <v>14.98796247308788</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342601</v>
+        <v>24.62982646342589</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072528</v>
+        <v>31.51769812072513</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094325</v>
+        <v>33.23099356094308</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898673</v>
+        <v>32.44083480898657</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736681</v>
+        <v>29.96436164736666</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275583</v>
+        <v>25.63968789275571</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846769</v>
+        <v>17.7515908884676</v>
       </c>
       <c r="R7" t="n">
-        <v>9.53201265165141</v>
+        <v>9.532012651651364</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513901</v>
+        <v>3.694473969513883</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477483</v>
+        <v>0.9057917400477439</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912021</v>
+        <v>0.01156329880912015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>151.298066666745</v>
       </c>
       <c r="O3" t="n">
-        <v>206.4318170255555</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201026</v>
+        <v>28.16237059201006</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109936</v>
+        <v>164.1725419109933</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548581</v>
+        <v>256.4752296548577</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337553</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366721</v>
+        <v>292.2617450366717</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.3303996539454</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926786</v>
+        <v>158.5267349926783</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414939</v>
+        <v>41.04519843414914</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557037</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690027</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>203.2996079299567</v>
+        <v>287.18990822842</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464217</v>
+        <v>372.039630846421</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464217</v>
+        <v>269.6933552702925</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>311.4291731033523</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>232.7745516605752</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543154</v>
+        <v>2.360334637543037</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104142</v>
+        <v>59.10772338104127</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278383</v>
+        <v>72.81487052278368</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821531</v>
+        <v>76.57300718821517</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140648</v>
+        <v>54.54948956140633</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764932</v>
+        <v>22.9182471576492</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262132</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.74822800113539</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>389.1274892183194</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>329.5684730204368</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>294.2627707717789</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.214186879932</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>450.0931893251296</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
